--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,9 +252,6 @@
     <t>活动</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -264,33 +261,21 @@
     <t>小</t>
   </si>
   <si>
-    <t>12,13,14,15,18,19,20,21,184,185,</t>
-  </si>
-  <si>
     <t>中</t>
   </si>
   <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
     <t>大</t>
   </si>
   <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
-  </si>
-  <si>
     <t>60,10,5</t>
   </si>
   <si>
     <t>巨</t>
   </si>
   <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
-  </si>
-  <si>
     <t>10,10,10</t>
   </si>
   <si>
@@ -298,6 +283,26 @@
   </si>
   <si>
     <t>191,192,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,193,194,195,193,194,195,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,200,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +392,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +463,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,7 +1028,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1131,10 +1149,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,6 +1450,102 @@
       </c>
       <c r="H12" s="8">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14">
+        <v>43</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14">
+        <v>44</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1744,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1681,16 +1795,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,16 +1812,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,16 +1829,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,16 +1846,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,16 +1863,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1460,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15">
         <v>2</v>
@@ -1484,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="15">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
@@ -1532,7 +1532,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -288,27 +288,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,184,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,186,188,189,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,193,194,</t>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +380,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +399,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -425,7 +438,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,6 +468,14 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -746,9 +767,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="67.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -774,7 +795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -813,9 +834,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -831,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -839,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -862,9 +883,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -880,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -888,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -896,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -919,9 +940,9 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -937,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -945,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -968,9 +989,9 @@
       <selection activeCell="H35" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,7 +999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -986,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -994,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1018,12 +1039,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1091,7 +1112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1118,25 +1139,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="42" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
@@ -1162,7 +1184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1196,7 +1218,7 @@
       <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
       <c r="E3" s="9">
@@ -1210,7 +1232,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1220,10 +1242,10 @@
       <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1236,7 +1258,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1283,7 +1305,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1306,7 +1328,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1329,97 +1351,104 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" s="12" customFormat="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="C9" s="13">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="8">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="C10" s="13">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="8">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="C11" s="13">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="13">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1601913599</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,9 +1466,9 @@
       <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1476,9 +1505,9 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1506,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1520,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1534,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1548,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1562,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1576,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1590,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1616,11 +1645,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="111.75" style="2" customWidth="1"/>
@@ -1629,7 +1658,7 @@
     <col min="6" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1646,12 +1675,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="39" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>61</v>
@@ -1663,12 +1692,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -1680,12 +1709,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -1697,12 +1726,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>57</v>
@@ -1714,12 +1743,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="27">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -1731,12 +1760,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
@@ -1748,130 +1777,130 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
   </sheetData>
@@ -1890,9 +1919,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1906,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1920,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1934,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1948,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1962,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1976,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1990,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2018,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2048,12 +2077,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2081,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2095,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2124,9 +2153,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2142,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2150,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2158,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2166,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2189,9 +2218,9 @@
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2207,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2215,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,36 +86,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight5</t>
   </si>
   <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight4</t>
   </si>
   <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight3</t>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>|1小鱼
@@ -168,15 +148,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_config|出生权重引用页面，不填的组权重为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,115 +172,132 @@
     <t>end_time|结束时间</t>
   </si>
   <si>
+    <t>create_delay|活动鱼创建间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>judge_type|判断类型,2 =,3 &gt;= ,4 &lt;= , 5 ~=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
+  </si>
+  <si>
+    <t>5,5,5,</t>
+  </si>
+  <si>
     <t>create_weight6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_delay|活动鱼创建间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>148,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
   </si>
   <si>
     <t>60,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>judge_type|判断类型,2 =,3 &gt;= ,4 &lt;= , 5 ~=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
   </si>
   <si>
     <t>10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,</t>
-  </si>
-  <si>
-    <t>56,</t>
-  </si>
-  <si>
-    <t>57,</t>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>191,192,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +371,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +387,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -438,7 +420,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,14 +451,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,35 +742,35 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,17 +809,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -852,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -860,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,17 +858,17 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -901,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -909,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -917,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -940,17 +915,17 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -958,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -966,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -989,17 +964,17 @@
       <selection activeCell="H35" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1007,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1033,40 +1008,40 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -1075,15 +1050,15 @@
         <v>3000</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>600</v>
@@ -1092,15 +1067,15 @@
         <v>1800</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>600</v>
@@ -1109,15 +1084,15 @@
         <v>1200</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1800</v>
@@ -1126,7 +1101,24 @@
         <v>2400</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1139,57 +1131,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>15</v>
@@ -1208,17 +1199,17 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="9">
@@ -1232,20 +1223,20 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1258,12 +1249,12 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1282,12 +1273,12 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1305,12 +1296,12 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1328,12 +1319,12 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1351,104 +1342,97 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8">
         <v>35</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="8">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
         <v>36</v>
       </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="8">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8">
         <v>37</v>
       </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="8">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8">
         <v>38</v>
       </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <v>1606751999</v>
       </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1466,9 +1450,9 @@
       <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1505,9 +1489,9 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1535,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1549,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1563,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1577,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1591,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1605,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1619,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1646,10 +1630,10 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="111.75" style="2" customWidth="1"/>
@@ -1658,249 +1642,249 @@
     <col min="6" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49"/>
     </row>
   </sheetData>
@@ -1919,9 +1903,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1949,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1963,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1977,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1991,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2005,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2019,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2033,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2047,7 +2031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2077,12 +2061,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="36.75" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2096,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2110,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2124,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2153,17 +2137,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2171,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2179,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2187,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2195,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2218,17 +2202,17 @@
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2236,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2244,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,23 +286,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,193,194,195,193,194,195,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,196,197,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,198,199,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,198,199,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,200,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +474,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,6 +1559,102 @@
       </c>
       <c r="H16" s="14">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="17">
+        <v>46</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="17">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1853,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +380,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +450,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1165,7 +1181,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,11 +1594,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1608566399</v>
+      <c r="G17" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,11 +1618,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1608566399</v>
+      <c r="G18" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1626,11 +1642,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1608566399</v>
+      <c r="G19" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1650,11 +1666,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1608566399</v>
+      <c r="G20" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -415,7 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:L23"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1595,10 +1595,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H17" s="19">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H18" s="19">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H19" s="19">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,10 +1667,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H20" s="19">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -415,7 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,10 +1595,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,10 +1667,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -298,11 +298,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,13 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,12 +485,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,8 +1174,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1595,10 +1589,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1609804800</v>
+        <v>1610409600</v>
       </c>
       <c r="H17" s="19">
-        <v>1610380799</v>
+        <v>1610985599</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,10 +1613,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1609804800</v>
+        <v>1610409600</v>
       </c>
       <c r="H18" s="19">
-        <v>1610380799</v>
+        <v>1610985599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,10 +1637,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1609804800</v>
+        <v>1610409600</v>
       </c>
       <c r="H19" s="19">
-        <v>1610380799</v>
+        <v>1610985599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,10 +1661,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1609804800</v>
+        <v>1610409600</v>
       </c>
       <c r="H20" s="19">
-        <v>1610380799</v>
+        <v>1610985599</v>
       </c>
     </row>
   </sheetData>
@@ -1868,8 +1862,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1988,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +299,10 @@
   </si>
   <si>
     <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>58</v>
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1965,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -290,15 +290,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +379,6 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,7 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1168,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,10 +1582,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,10 +1606,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1637,10 +1630,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1661,10 +1654,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1856,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1965,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -381,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +392,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -437,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,20 +465,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1167,8 +1158,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1468,196 +1459,196 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>40</v>
       </c>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>41</v>
       </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="16">
         <v>42</v>
       </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="16">
         <v>43</v>
       </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14">
+      <c r="F16" s="18"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>44</v>
       </c>
-      <c r="D17" s="18">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1611590399</v>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1611590399</v>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>46</v>
       </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1611590399</v>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>47</v>
       </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1611590399</v>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1846,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -461,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,33 +476,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1163,7 +1142,7 @@
       <c r="D6">
         <v>4000</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1180,497 +1159,496 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="9">
         <v>15</v>
       </c>
-      <c r="D2" s="24">
-        <v>2</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="25">
-        <v>2</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9">
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="25">
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>1200</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="24">
-        <v>2</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9">
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="24">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="24">
-        <v>2</v>
-      </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="24">
-        <v>2</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <v>2555555555</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="8">
         <v>35</v>
       </c>
-      <c r="D9" s="25">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="8">
         <v>36</v>
       </c>
-      <c r="D10" s="25">
-        <v>2</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="8">
         <v>37</v>
       </c>
-      <c r="D11" s="25">
-        <v>2</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="8">
         <v>38</v>
       </c>
-      <c r="D12" s="25">
-        <v>2</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <v>40</v>
       </c>
-      <c r="D13" s="26">
-        <v>2</v>
-      </c>
-      <c r="E13" s="26">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <v>41</v>
       </c>
-      <c r="D14" s="26">
-        <v>2</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="16">
         <v>42</v>
       </c>
-      <c r="D15" s="26">
-        <v>2</v>
-      </c>
-      <c r="E15" s="26">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="16">
         <v>43</v>
       </c>
-      <c r="D16" s="26">
-        <v>2</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14">
+      <c r="F16" s="18"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="14">
         <v>44</v>
       </c>
-      <c r="D17" s="27">
-        <v>2</v>
-      </c>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <v>1611619200</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1612195199</v>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16">
+        <v>1612224000</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="14">
         <v>45</v>
       </c>
-      <c r="D18" s="27">
-        <v>2</v>
-      </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <v>1611619200</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1612195199</v>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
+        <v>1612224000</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="14">
         <v>46</v>
       </c>
-      <c r="D19" s="27">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <v>1611619200</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1612195199</v>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16">
+        <v>1612224000</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="14">
         <v>47</v>
       </c>
-      <c r="D20" s="27">
-        <v>2</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <v>1611619200</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1612195199</v>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>1612224000</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1880,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,9 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -464,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,6 +470,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1142,7 +1163,7 @@
       <c r="D6">
         <v>4000</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1159,495 +1180,496 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="18">
         <v>15</v>
       </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="19">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10">
+      <c r="D3" s="25">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="19">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <v>1200</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="20">
         <v>21</v>
       </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10">
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="20">
         <v>22</v>
       </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="20">
         <v>24</v>
       </c>
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>2555555555</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="19">
         <v>35</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="19">
         <v>36</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="D10" s="25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="19">
         <v>37</v>
       </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="19">
         <v>38</v>
       </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="21">
         <v>40</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16">
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="21">
         <v>41</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16">
+      <c r="D14" s="26">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="21">
         <v>42</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16">
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="21">
         <v>43</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="26">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16">
+      <c r="F16" s="16"/>
+      <c r="G16" s="14">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="22">
         <v>44</v>
       </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16">
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
         <v>1611619200</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="22">
         <v>45</v>
       </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16">
+      <c r="D18" s="27">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
         <v>1611619200</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="22">
         <v>46</v>
       </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16">
+      <c r="D19" s="27">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
         <v>1611619200</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="14">
         <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="22">
         <v>47</v>
       </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20" s="27">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27">
         <v>5</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14">
         <v>1611619200</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="14">
         <v>1612195199</v>
       </c>
     </row>
@@ -1880,7 +1902,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,69 +240,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5,5,5,</t>
+  </si>
+  <si>
+    <t>create_weight6</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>60,10,5</t>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>191,192,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
-  </si>
-  <si>
-    <t>5,5,5,</t>
-  </si>
-  <si>
-    <t>create_weight6</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>60,10,5</t>
-  </si>
-  <si>
-    <t>巨</t>
-  </si>
-  <si>
-    <t>10,10,10</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>191,192,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,202,203,204,205,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206,207,208,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214,215,216,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217,218,219,220,221,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222,223,224,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,7 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +491,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,13 +523,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,6 +530,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,18 +1110,21 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="5" max="5" width="58.5" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1060,8 +1140,14 @@
       <c r="E1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,7 +1164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1095,7 +1181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1112,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1129,12 +1215,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1144,6 +1230,351 @@
       </c>
       <c r="E6" s="12" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="19">
+        <v>200</v>
+      </c>
+      <c r="D7" s="19">
+        <v>300</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="19">
+        <v>200</v>
+      </c>
+      <c r="D8" s="19">
+        <v>300</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19">
+        <v>200</v>
+      </c>
+      <c r="D9" s="19">
+        <v>300</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19">
+        <v>200</v>
+      </c>
+      <c r="D10" s="19">
+        <v>300</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="19">
+        <v>6000</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="20">
+        <v>200</v>
+      </c>
+      <c r="D12" s="20">
+        <v>300</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="20">
+        <v>200</v>
+      </c>
+      <c r="D13" s="20">
+        <v>300</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="20">
+        <v>200</v>
+      </c>
+      <c r="D14" s="20">
+        <v>300</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="20">
+        <v>200</v>
+      </c>
+      <c r="D15" s="20">
+        <v>300</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="20">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="20">
+        <v>6000</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="21">
+        <v>200</v>
+      </c>
+      <c r="D17" s="21">
+        <v>300</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21">
+        <v>200</v>
+      </c>
+      <c r="D18" s="21">
+        <v>300</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="21">
+        <v>200</v>
+      </c>
+      <c r="D19" s="21">
+        <v>300</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="21">
+        <v>200</v>
+      </c>
+      <c r="D20" s="21">
+        <v>300</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="21">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="21">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1156,18 +1587,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
@@ -1231,10 +1662,10 @@
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
       <c r="E3" s="9">
@@ -1255,13 +1686,13 @@
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1281,7 +1712,7 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="16">
         <v>21</v>
       </c>
       <c r="D5" s="9">
@@ -1305,7 +1736,7 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="16">
         <v>22</v>
       </c>
       <c r="D6" s="9">
@@ -1328,7 +1759,7 @@
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="16">
         <v>23</v>
       </c>
       <c r="D7" s="9">
@@ -1351,7 +1782,7 @@
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="16">
         <v>24</v>
       </c>
       <c r="D8" s="9">
@@ -1374,19 +1805,19 @@
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>35</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1397,19 +1828,19 @@
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>36</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1420,19 +1851,19 @@
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>37</v>
       </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1443,213 +1874,197 @@
       <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>38</v>
       </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>40</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>41</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16">
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>42</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>43</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16">
+      <c r="F16" s="15"/>
+      <c r="G16" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="14">
-        <v>44</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1612799999</v>
-      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14">
-        <v>45</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1612799999</v>
-      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="14">
-        <v>46</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1612799999</v>
-      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="16">
-        <v>1612799999</v>
-      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,7 +2262,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1881,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,13 +2316,13 @@
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1915,16 +2330,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,16 +2347,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1949,16 +2364,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1966,32 +2381,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13"/>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1335,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="19">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>79</v>
@@ -1450,7 +1450,7 @@
         <v>3000</v>
       </c>
       <c r="D16" s="20">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>79</v>
@@ -1565,7 +1565,7 @@
         <v>3000</v>
       </c>
       <c r="D21" s="21">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>79</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1335,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="19">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>79</v>
@@ -1450,7 +1450,7 @@
         <v>3000</v>
       </c>
       <c r="D16" s="20">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>79</v>
@@ -1565,7 +1565,7 @@
         <v>3000</v>
       </c>
       <c r="D21" s="21">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>79</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="25">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="G12" s="25">
         <v>1614009599</v>
@@ -1387,7 +1387,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="25">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="G13" s="25">
         <v>1614009599</v>
@@ -1410,7 +1410,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="25">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="G14" s="25">
         <v>1614009599</v>
@@ -1433,7 +1433,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="25">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="G15" s="25">
         <v>1614009599</v>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="25">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="G16" s="25">
         <v>1614009599</v>
@@ -1479,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="26">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="G17" s="26">
         <v>1614614399</v>
@@ -1502,7 +1502,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="26">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="G18" s="26">
         <v>1614614399</v>
@@ -1525,7 +1525,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="26">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="G19" s="26">
         <v>1614614399</v>
@@ -1548,7 +1548,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="26">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="G20" s="26">
         <v>1614614399</v>
@@ -1571,7 +1571,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="26">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="G21" s="26">
         <v>1614614399</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="25">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="G12" s="25">
         <v>1614009599</v>
@@ -1387,7 +1387,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="25">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="G13" s="25">
         <v>1614009599</v>
@@ -1410,7 +1410,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="25">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="G14" s="25">
         <v>1614009599</v>
@@ -1433,7 +1433,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="25">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="G15" s="25">
         <v>1614009599</v>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="25">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="G16" s="25">
         <v>1614009599</v>
@@ -1479,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="26">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="G17" s="26">
         <v>1614614399</v>
@@ -1502,7 +1502,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="26">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="G18" s="26">
         <v>1614614399</v>
@@ -1525,7 +1525,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="26">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="G19" s="26">
         <v>1614614399</v>
@@ -1548,7 +1548,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="26">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="G20" s="26">
         <v>1614614399</v>
@@ -1571,7 +1571,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="26">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="G21" s="26">
         <v>1614614399</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1335,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="19">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>79</v>
@@ -1450,7 +1450,7 @@
         <v>3000</v>
       </c>
       <c r="D16" s="20">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>79</v>
@@ -1565,7 +1565,7 @@
         <v>3000</v>
       </c>
       <c r="D21" s="21">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>79</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -429,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,19 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +479,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,21 +527,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,348 +1212,348 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>200</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>300</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="24">
-        <v>1614643200</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>200</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>300</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="24">
-        <v>1614643200</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F8" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>200</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>300</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="24">
-        <v>1614643200</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F9" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>200</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>300</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="24">
-        <v>1614643200</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>3000</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>3000</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="24">
-        <v>1614643200</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F11" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>200</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>300</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>200</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>300</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>200</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>300</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>200</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>300</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>3000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>3000</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>200</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>300</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>200</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>300</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>200</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>300</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>200</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>300</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>3000</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>3000</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="18">
         <v>1614614399</v>
       </c>
     </row>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,10 +1249,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="24">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="G7" s="24">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1272,10 +1272,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="24">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="G8" s="24">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1295,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="24">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="G9" s="24">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1318,10 +1318,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="24">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="G10" s="24">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1341,10 +1341,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="24">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="G11" s="24">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G7" s="23">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G8" s="23">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G9" s="23">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G10" s="23">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G11" s="23">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G7" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G8" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G9" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G10" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G11" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G7" s="23">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G8" s="23">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G9" s="23">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G10" s="23">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G11" s="23">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G7" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G8" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G9" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G10" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G11" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1312,10 +1312,10 @@
         <v>75</v>
       </c>
       <c r="C11" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="D11" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>79</v>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G7" s="23">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G8" s="23">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G9" s="23">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G10" s="23">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G11" s="23">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -248,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -283,52 +276,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,6 +290,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -350,28 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +323,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,24 +350,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,11 +380,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -458,7 +451,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,67 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,49 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,21 +670,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -702,15 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,8 +717,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,138 +775,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -928,10 +921,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,8 +933,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -952,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -1567,7 +1560,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1703,10 +1696,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="G7" s="6">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1726,10 +1719,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="G8" s="6">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1749,10 +1742,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="G9" s="6">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1772,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="G10" s="6">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1795,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="G11" s="6">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -281,40 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,42 +290,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +312,63 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -380,6 +377,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -394,14 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -411,7 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,15 +416,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -451,7 +451,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,169 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,37 +664,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,9 +686,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,7 +699,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,13 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,150 +763,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1696,10 +1696,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="G7" s="6">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1719,10 +1719,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="G8" s="6">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1742,10 +1742,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="G9" s="6">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1765,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="G10" s="6">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1788,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="G11" s="6">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -249,8 +249,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -281,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -290,36 +298,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -340,8 +326,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -349,9 +350,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,34 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -399,16 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +429,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -451,7 +451,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,43 +571,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,79 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,43 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,15 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -680,6 +671,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,138 +775,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1696,10 +1696,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="G7" s="6">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1719,10 +1719,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="G8" s="6">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1742,10 +1742,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="G9" s="6">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1765,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="G10" s="6">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1788,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="G11" s="6">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -252,8 +252,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -291,32 +291,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,12 +334,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -363,27 +396,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,23 +411,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,19 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -461,7 +461,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,133 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +689,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,31 +737,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,27 +767,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,138 +785,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1572,8 +1572,8 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1709,10 +1709,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G7" s="6">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1732,10 +1732,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G8" s="6">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1755,10 +1755,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G9" s="6">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1778,10 +1778,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G10" s="6">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -2054,10 +2054,10 @@
         <v>63</v>
       </c>
       <c r="F22" s="6">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G22" s="6">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -292,6 +292,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -299,14 +313,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +358,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -336,54 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,10 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,24 +425,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +461,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,175 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,6 +671,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -681,24 +705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,33 +727,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -767,156 +747,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H28:H29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1709,10 +1709,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="G7" s="6">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1732,10 +1732,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="G8" s="6">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1755,10 +1755,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="G9" s="6">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1778,10 +1778,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="G10" s="6">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1801,10 +1801,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="G11" s="6">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -299,7 +299,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,38 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -382,8 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,9 +413,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,34 +433,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -461,7 +461,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,163 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,30 +671,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -712,23 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,17 +698,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -767,16 +717,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,138 +785,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -930,11 +930,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H29" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1800,11 +1800,11 @@
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7">
-        <v>1623167999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1623254399</v>
+      <c r="F11" s="6">
+        <v>1624924800</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">
@@ -1820,13 +1820,13 @@
       <c r="D12" s="2">
         <v>300</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>1613433600</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -1843,13 +1843,13 @@
       <c r="D13" s="2">
         <v>300</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>1613433600</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -1866,13 +1866,13 @@
       <c r="D14" s="2">
         <v>300</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>1613433600</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -1889,13 +1889,13 @@
       <c r="D15" s="2">
         <v>300</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>1613433600</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -1912,13 +1912,13 @@
       <c r="D16" s="2">
         <v>3000</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>1613433600</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -1935,13 +1935,13 @@
       <c r="D17" s="2">
         <v>300</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1614038400</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -1958,13 +1958,13 @@
       <c r="D18" s="2">
         <v>300</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1614038400</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -1981,13 +1981,13 @@
       <c r="D19" s="2">
         <v>300</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>1614038400</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2004,13 +2004,13 @@
       <c r="D20" s="2">
         <v>300</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>1614038400</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2027,13 +2027,13 @@
       <c r="D21" s="2">
         <v>3000</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1614038400</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2053,11 +2053,11 @@
       <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="6">
-        <v>1624924800</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1625500799</v>
+      <c r="F22" s="9">
+        <v>1623167999</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>no</t>
   </si>
@@ -968,7 +968,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,10 +1104,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="G7" s="6">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1127,10 +1127,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="G8" s="6">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1150,10 +1150,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="G9" s="6">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1173,10 +1173,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="G10" s="6">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -273,6 +273,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,12 +281,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -293,17 +296,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -968,7 +974,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F7" sqref="F7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="G7" s="6">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1127,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="G8" s="6">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1150,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="G9" s="6">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1173,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="G10" s="6">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1196,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="G11" s="6">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="G7" s="6">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="G8" s="6">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="G9" s="6">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="G10" s="6">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="G11" s="6">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G7" s="6">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G8" s="6">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G9" s="6">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G10" s="6">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G11" s="6">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="G7" s="6">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="G8" s="6">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="G9" s="6">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="G10" s="6">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="G11" s="6">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G7" s="6">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G8" s="6">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G9" s="6">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G10" s="6">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G11" s="6">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_debug/fish_yutu_random_2.xlsx
+++ b/config_debug/fish_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,10 +1110,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="G7" s="6">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="G8" s="6">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="G9" s="6">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="G10" s="6">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="G11" s="6">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
